--- a/Telangana/Future_Predicted_TG.xlsx
+++ b/Telangana/Future_Predicted_TG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karti\Desktop\Arima &amp; Sarima - COVID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\DIC Projects\COVID Trend Analysis\Arima &amp; Sarima Models - COVID Trend Analysis\SARIMA\Telangana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39748BC3-A808-4EC7-9D92-7F3D5F1033FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4851220-BF09-4CA2-8165-047EAAF32B62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,6 @@
     <sheet name="4457aed65ed8895d5e26de5cc653f91" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -39,79 +34,79 @@
     <t>Future_Predicted_Decreased</t>
   </si>
   <si>
-    <t>2020-06-12</t>
-  </si>
-  <si>
-    <t>2020-06-13</t>
-  </si>
-  <si>
-    <t>2020-06-14</t>
-  </si>
-  <si>
-    <t>2020-06-15</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>2020-06-17</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>2020-06-19</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>2020-06-21</t>
-  </si>
-  <si>
-    <t>2020-06-22</t>
-  </si>
-  <si>
-    <t>2020-06-23</t>
-  </si>
-  <si>
-    <t>2020-06-24</t>
-  </si>
-  <si>
-    <t>2020-06-25</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>2020-06-27</t>
-  </si>
-  <si>
-    <t>2020-06-28</t>
-  </si>
-  <si>
-    <t>2020-06-29</t>
-  </si>
-  <si>
-    <t>2020-06-30</t>
-  </si>
-  <si>
-    <t>2020-07-01</t>
-  </si>
-  <si>
-    <t>2020-07-02</t>
-  </si>
-  <si>
-    <t>2020-07-03</t>
-  </si>
-  <si>
-    <t>2020-07-04</t>
-  </si>
-  <si>
-    <t>2020-07-05</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
+    <t>2020-07-12</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>2020-07-16</t>
+  </si>
+  <si>
+    <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>2020-07-18</t>
+  </si>
+  <si>
+    <t>2020-07-19</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-24</t>
+  </si>
+  <si>
+    <t>2020-07-25</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
+    <t>2020-07-29</t>
+  </si>
+  <si>
+    <t>2020-07-30</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
   </si>
 </sst>
 </file>
@@ -145,7 +140,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -601,9 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -613,367 +607,367 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>252.328204591196</v>
-      </c>
-      <c r="C2">
-        <v>137.35622711864201</v>
-      </c>
-      <c r="D2">
-        <v>9.9827291895561405</v>
+      <c r="B2" s="1">
+        <v>793.18435480494304</v>
+      </c>
+      <c r="C2" s="1">
+        <v>728.00136739957395</v>
+      </c>
+      <c r="D2" s="1">
+        <v>21.351463054583199</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>243.721550630422</v>
-      </c>
-      <c r="C3">
-        <v>123.890773990426</v>
-      </c>
-      <c r="D3">
-        <v>12.6283422391852</v>
+      <c r="B3" s="1">
+        <v>791.24240463880994</v>
+      </c>
+      <c r="C3" s="1">
+        <v>799.52043194362795</v>
+      </c>
+      <c r="D3" s="1">
+        <v>17.609751960960299</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>228.995013408484</v>
-      </c>
-      <c r="C4">
-        <v>142.17037364442299</v>
-      </c>
-      <c r="D4">
-        <v>8.5299087329658203</v>
+      <c r="B4" s="1">
+        <v>888.99717085417399</v>
+      </c>
+      <c r="C4" s="1">
+        <v>800.31236633065998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>19.018346467165902</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>304.35792441655201</v>
-      </c>
-      <c r="C5">
-        <v>150.870059732447</v>
-      </c>
-      <c r="D5">
-        <v>9.6789838337240592</v>
+      <c r="B5" s="1">
+        <v>890.02881369800798</v>
+      </c>
+      <c r="C5" s="1">
+        <v>837.73715192645102</v>
+      </c>
+      <c r="D5" s="1">
+        <v>22.769909124500099</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>288.46985547509399</v>
-      </c>
-      <c r="C6">
-        <v>171.26901787399001</v>
-      </c>
-      <c r="D6">
-        <v>12.9648523512568</v>
+      <c r="B6" s="1">
+        <v>888.84948328613098</v>
+      </c>
+      <c r="C6" s="1">
+        <v>913.90279904756801</v>
+      </c>
+      <c r="D6" s="1">
+        <v>19.024507933104601</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>269.41366555125899</v>
-      </c>
-      <c r="C7">
-        <v>220.53477562582299</v>
-      </c>
-      <c r="D7">
-        <v>9.4042715792826694</v>
+      <c r="B7" s="1">
+        <v>990.96350278987302</v>
+      </c>
+      <c r="C7" s="1">
+        <v>915.84416738137202</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20.477187527144299</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>343.97827136774401</v>
-      </c>
-      <c r="C8">
-        <v>203.31280521622801</v>
-      </c>
-      <c r="D8">
-        <v>10.410450287879</v>
+      <c r="B8" s="1">
+        <v>993.76096781642195</v>
+      </c>
+      <c r="C8" s="1">
+        <v>956.18202182351695</v>
+      </c>
+      <c r="D8" s="1">
+        <v>24.320059809677002</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>343.98624901760797</v>
-      </c>
-      <c r="C9">
-        <v>232.56786078450199</v>
-      </c>
-      <c r="D9">
-        <v>13.0925114705884</v>
+      <c r="B9" s="1">
+        <v>994.52520608766395</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1036.3525391948201</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20.495265665288802</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>343.06558035412502</v>
-      </c>
-      <c r="C10">
-        <v>293.846940207567</v>
-      </c>
-      <c r="D10">
-        <v>10.960464002659499</v>
+      <c r="B10" s="1">
+        <v>1100.45603216682</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1040.45059001139</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22.000995207489598</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>413.15701700490001</v>
-      </c>
-      <c r="C11">
-        <v>283.80408894206403</v>
-      </c>
-      <c r="D11">
-        <v>12.1201100575453</v>
+      <c r="B11" s="1">
+        <v>1104.74127909341</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1083.3378819705299</v>
+      </c>
+      <c r="D11" s="1">
+        <v>25.968185889190199</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>405.486572735756</v>
-      </c>
-      <c r="C12">
-        <v>296.47528444909801</v>
-      </c>
-      <c r="D12">
-        <v>15.382458189411301</v>
+      <c r="B12" s="1">
+        <v>1107.01027655296</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1167.08084741383</v>
+      </c>
+      <c r="D12" s="1">
+        <v>22.013294307367801</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>394.12374500052601</v>
-      </c>
-      <c r="C13">
-        <v>341.903520299543</v>
-      </c>
-      <c r="D13">
-        <v>11.4040332608049</v>
+      <c r="B13" s="1">
+        <v>1217.2519323551801</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1173.3182906807899</v>
+      </c>
+      <c r="D13" s="1">
+        <v>23.566529125930501</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>475.72187534557702</v>
-      </c>
-      <c r="C14">
-        <v>338.38912602648799</v>
-      </c>
-      <c r="D14">
-        <v>12.5773850816046</v>
+      <c r="B14" s="1">
+        <v>1223.0172962603799</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1219.6210184233701</v>
+      </c>
+      <c r="D14" s="1">
+        <v>27.633073682169599</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>469.80660636387</v>
-      </c>
-      <c r="C15">
-        <v>367.64685364793098</v>
-      </c>
-      <c r="D15">
-        <v>15.783044946344599</v>
+      <c r="B15" s="1">
+        <v>1226.83194615723</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1307.8043296753799</v>
+      </c>
+      <c r="D15" s="1">
+        <v>23.631188878050601</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>461.62291510338201</v>
-      </c>
-      <c r="C16">
-        <v>430.140525115868</v>
-      </c>
-      <c r="D16">
-        <v>12.7830662957259</v>
+      <c r="B16" s="1">
+        <v>1341.37643230502</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1316.02053701047</v>
+      </c>
+      <c r="D16" s="1">
+        <v>25.234793033555199</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
-        <v>543.86249777213197</v>
-      </c>
-      <c r="C17">
-        <v>420.86430426379297</v>
-      </c>
-      <c r="D17">
-        <v>13.985810380425299</v>
+      <c r="B17" s="1">
+        <v>1348.9014108670001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1365.32176378944</v>
+      </c>
+      <c r="D17" s="1">
+        <v>29.412304200546199</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
-        <v>541.79517373662804</v>
-      </c>
-      <c r="C18">
-        <v>446.99908309993998</v>
-      </c>
-      <c r="D18">
-        <v>17.251709240509999</v>
+      <c r="B18" s="1">
+        <v>1354.56668377764</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1457.55400486645</v>
+      </c>
+      <c r="D18" s="1">
+        <v>25.305013447669499</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
-        <v>537.58610643166696</v>
-      </c>
-      <c r="C19">
-        <v>508.03033497733003</v>
-      </c>
-      <c r="D19">
-        <v>13.864351765265299</v>
+      <c r="B19" s="1">
+        <v>1473.38933933867</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1468.1237195840499</v>
+      </c>
+      <c r="D19" s="1">
+        <v>26.959809087720402</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
-        <v>622.81455494182501</v>
-      </c>
-      <c r="C20">
-        <v>504.59226540652298</v>
-      </c>
-      <c r="D20">
-        <v>15.142865780454001</v>
+      <c r="B20" s="1">
+        <v>1482.6225875853099</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1520.6803212592999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>31.248826701506001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
-        <v>619.40527903236705</v>
-      </c>
-      <c r="C21">
-        <v>532.52461009301896</v>
-      </c>
-      <c r="D21">
-        <v>18.626543809244701</v>
+      <c r="B21" s="1">
+        <v>1490.0481014501299</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1617.19452644065</v>
+      </c>
+      <c r="D21" s="1">
+        <v>27.059111888675101</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
-        <v>613.34275839878501</v>
-      </c>
-      <c r="C22">
-        <v>596.04441104548403</v>
-      </c>
-      <c r="D22">
-        <v>14.985470209705801</v>
+      <c r="B22" s="1">
+        <v>1613.33522026162</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1630.06488215073</v>
+      </c>
+      <c r="D22" s="1">
+        <v>28.7643355710977</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
-        <v>704.17503822338404</v>
-      </c>
-      <c r="C23">
-        <v>593.03881064761595</v>
-      </c>
-      <c r="D23">
-        <v>16.289173714830302</v>
+      <c r="B23" s="1">
+        <v>1624.37051038492</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1686.0321217783401</v>
+      </c>
+      <c r="D23" s="1">
+        <v>33.160644854731601</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
-        <v>702.81513820482201</v>
-      </c>
-      <c r="C24">
-        <v>626.34405705040297</v>
-      </c>
-      <c r="D24">
-        <v>19.787801034550998</v>
+      <c r="B24" s="1">
+        <v>1633.67047630262</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1786.99501883626</v>
+      </c>
+      <c r="D24" s="1">
+        <v>28.8921775523965</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
-        <v>699.30033527836099</v>
-      </c>
-      <c r="C25">
-        <v>696.33688561490806</v>
-      </c>
-      <c r="D25">
-        <v>16.345523921750001</v>
+      <c r="B25" s="1">
+        <v>1761.45019446775</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1802.2880287979899</v>
+      </c>
+      <c r="D25" s="1">
+        <v>30.6494865299975</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
-        <v>792.93282276899504</v>
-      </c>
-      <c r="C26">
-        <v>694.283741761138</v>
-      </c>
-      <c r="D26">
-        <v>17.7054279303021</v>
+      <c r="B26" s="1">
+        <v>1774.39843087229</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1861.6462905896899</v>
+      </c>
+      <c r="D26" s="1">
+        <v>35.158240454037497</v>
       </c>
     </row>
   </sheetData>

--- a/Telangana/Future_Predicted_TG.xlsx
+++ b/Telangana/Future_Predicted_TG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\DIC Projects\COVID Trend Analysis\Arima &amp; Sarima Models - COVID Trend Analysis\SARIMA\Telangana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4851220-BF09-4CA2-8165-047EAAF32B62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1410CBDB-0ECB-40F1-8BF0-E4EF1B503168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,22 +166,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>73132</xdr:rowOff>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>159286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE08EB8-5BA5-4CF3-899C-5DEAAE2A28AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F013763D-70EC-4636-A916-B3A2F1BA6341}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -197,8 +197,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="60960" y="4602480"/>
-          <a:ext cx="6957059" cy="4523212"/>
+          <a:off x="0" y="4625340"/>
+          <a:ext cx="7254240" cy="4754146"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -210,22 +210,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>429529</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>674140</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>205741</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF00FA5-30FB-4DAA-87EB-E6B7A77192EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BFDCA2-8A51-4B2A-BA41-18E3751512C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -241,8 +241,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7028449" y="4564380"/>
-          <a:ext cx="6908532" cy="4526280"/>
+          <a:off x="7273060" y="4701540"/>
+          <a:ext cx="6854420" cy="4663440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -254,22 +254,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1196341</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>1257299</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>196293</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>137159</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>70964</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1FBABD-46AA-4360-B13A-7706EE248E8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06B8FA4-2D39-447C-A08B-D2AE13CFCE83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -285,8 +285,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3589021" y="9113520"/>
-          <a:ext cx="6376112" cy="4267199"/>
+          <a:off x="3649979" y="9387840"/>
+          <a:ext cx="6982305" cy="4693920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/Telangana/Future_Predicted_TG.xlsx
+++ b/Telangana/Future_Predicted_TG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\DIC Projects\COVID Trend Analysis\Arima &amp; Sarima Models - COVID Trend Analysis\SARIMA\Telangana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karti\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1410CBDB-0ECB-40F1-8BF0-E4EF1B503168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{B1B6B617-00FB-4CB5-B544-84245480F0D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,12 @@
     <sheet name="4457aed65ed8895d5e26de5cc653f91" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -140,8 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -166,22 +171,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>50503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>159286</xdr:rowOff>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F013763D-70EC-4636-A916-B3A2F1BA6341}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B30E67A-62F6-4FAD-A1CD-00296D3BC521}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -197,8 +202,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4625340"/>
-          <a:ext cx="7254240" cy="4754146"/>
+          <a:off x="38100" y="4576783"/>
+          <a:ext cx="6987540" cy="4590078"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -210,22 +215,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>674140</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>388623</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>236221</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BFDCA2-8A51-4B2A-BA41-18E3751512C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A2FD8D-C393-4F74-A80B-BB864E5D76E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -241,8 +246,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7273060" y="4701540"/>
-          <a:ext cx="6854420" cy="4663440"/>
+          <a:off x="6987543" y="4511042"/>
+          <a:ext cx="6979918" cy="4625338"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -254,22 +259,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1257299</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>952503</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>106682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>70964</xdr:colOff>
+      <xdr:colOff>251790</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06B8FA4-2D39-447C-A08B-D2AE13CFCE83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6B2E6C-4AC8-4044-89FC-EFAF2A2266E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -285,8 +290,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3649979" y="9387840"/>
-          <a:ext cx="6982305" cy="4693920"/>
+          <a:off x="3345183" y="9159242"/>
+          <a:ext cx="7467927" cy="4975858"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -597,7 +602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -607,367 +614,367 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>793.18435480494304</v>
-      </c>
-      <c r="C2" s="1">
-        <v>728.00136739957395</v>
-      </c>
-      <c r="D2" s="1">
-        <v>21.351463054583199</v>
+      <c r="B2">
+        <v>1799.3770061124101</v>
+      </c>
+      <c r="C2">
+        <v>307.99387140795602</v>
+      </c>
+      <c r="D2">
+        <v>5.8492088551465002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>791.24240463880994</v>
-      </c>
-      <c r="C3" s="1">
-        <v>799.52043194362795</v>
-      </c>
-      <c r="D3" s="1">
-        <v>17.609751960960299</v>
+      <c r="B3">
+        <v>1849.4041537437399</v>
+      </c>
+      <c r="C3">
+        <v>404.61459865431902</v>
+      </c>
+      <c r="D3">
+        <v>6.5491063534315703</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>888.99717085417399</v>
-      </c>
-      <c r="C4" s="1">
-        <v>800.31236633065998</v>
-      </c>
-      <c r="D4" s="1">
-        <v>19.018346467165902</v>
+      <c r="B4">
+        <v>2023.7555273517301</v>
+      </c>
+      <c r="C4">
+        <v>500.71904330852999</v>
+      </c>
+      <c r="D4">
+        <v>6.1491599679805304</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>890.02881369800798</v>
-      </c>
-      <c r="C5" s="1">
-        <v>837.73715192645102</v>
-      </c>
-      <c r="D5" s="1">
-        <v>22.769909124500099</v>
+      <c r="B5">
+        <v>2161.2769840189399</v>
+      </c>
+      <c r="C5">
+        <v>441.37649610078699</v>
+      </c>
+      <c r="D5">
+        <v>6.7491892626560004</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
-        <v>888.84948328613098</v>
-      </c>
-      <c r="C6" s="1">
-        <v>913.90279904756801</v>
-      </c>
-      <c r="D6" s="1">
-        <v>19.024507933104601</v>
+      <c r="B6">
+        <v>2222.0757695799002</v>
+      </c>
+      <c r="C6">
+        <v>387.05599439276</v>
+      </c>
+      <c r="D6">
+        <v>7.0492370173904497</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
-        <v>990.96350278987302</v>
-      </c>
-      <c r="C7" s="1">
-        <v>915.84416738137202</v>
-      </c>
-      <c r="D7" s="1">
-        <v>20.477187527144299</v>
+      <c r="B7">
+        <v>2283.98734406621</v>
+      </c>
+      <c r="C7">
+        <v>530.22953757949097</v>
+      </c>
+      <c r="D7">
+        <v>6.61958710298107</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
-        <v>993.76096781642195</v>
-      </c>
-      <c r="C8" s="1">
-        <v>956.18202182351695</v>
-      </c>
-      <c r="D8" s="1">
-        <v>24.320059809677002</v>
+      <c r="B8">
+        <v>2404.7903533209901</v>
+      </c>
+      <c r="C8">
+        <v>550.18532337865804</v>
+      </c>
+      <c r="D8">
+        <v>6.2559296276630798</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
-        <v>994.52520608766395</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1036.3525391948201</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20.495265665288802</v>
+      <c r="B9">
+        <v>2455.20711113272</v>
+      </c>
+      <c r="C9">
+        <v>360.77275441352202</v>
+      </c>
+      <c r="D9">
+        <v>5.71044833893363</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
-        <v>1100.45603216682</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1040.45059001139</v>
-      </c>
-      <c r="D10" s="1">
-        <v>22.000995207489598</v>
+      <c r="B10">
+        <v>2624.9338508917999</v>
+      </c>
+      <c r="C10">
+        <v>478.52084088528699</v>
+      </c>
+      <c r="D10">
+        <v>5.6195356297175296</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
-        <v>1104.74127909341</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1083.3378819705299</v>
-      </c>
-      <c r="D11" s="1">
-        <v>25.968185889190199</v>
+      <c r="B11">
+        <v>2759.6960720514298</v>
+      </c>
+      <c r="C11">
+        <v>439.02087239565401</v>
+      </c>
+      <c r="D11">
+        <v>6.5761557974769502</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1">
-        <v>1107.01027655296</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1167.08084741383</v>
-      </c>
-      <c r="D12" s="1">
-        <v>22.013294307367801</v>
+      <c r="B12">
+        <v>2841.5861987267999</v>
+      </c>
+      <c r="C12">
+        <v>559.43946358482197</v>
+      </c>
+      <c r="D12">
+        <v>6.3761493612499898</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
-        <v>1217.2519323551801</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1173.3182906807899</v>
-      </c>
-      <c r="D13" s="1">
-        <v>23.566529125930501</v>
+      <c r="B13">
+        <v>2921.9874500373899</v>
+      </c>
+      <c r="C13">
+        <v>671.92293665292402</v>
+      </c>
+      <c r="D13">
+        <v>7.0760468595350599</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1">
-        <v>1223.0172962603799</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1219.6210184233701</v>
-      </c>
-      <c r="D14" s="1">
-        <v>27.633073682169599</v>
+      <c r="B14">
+        <v>3078.4775583033602</v>
+      </c>
+      <c r="C14">
+        <v>602.537685798486</v>
+      </c>
+      <c r="D14">
+        <v>6.67610047408402</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1">
-        <v>1226.83194615723</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1307.8043296753799</v>
-      </c>
-      <c r="D15" s="1">
-        <v>23.631188878050601</v>
+      <c r="B15">
+        <v>3147.4718884936001</v>
+      </c>
+      <c r="C15">
+        <v>542.73148019534801</v>
+      </c>
+      <c r="D15">
+        <v>7.2761297687594899</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
-        <v>1341.37643230502</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1316.02053701047</v>
-      </c>
-      <c r="D16" s="1">
-        <v>25.234793033555199</v>
+      <c r="B16">
+        <v>3338.15158938796</v>
+      </c>
+      <c r="C16">
+        <v>709.988083373275</v>
+      </c>
+      <c r="D16">
+        <v>7.5761775234939401</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1">
-        <v>1348.9014108670001</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1365.32176378944</v>
-      </c>
-      <c r="D17" s="1">
-        <v>29.412304200546199</v>
+      <c r="B17">
+        <v>3493.7993494992102</v>
+      </c>
+      <c r="C17">
+        <v>738.38409226096803</v>
+      </c>
+      <c r="D17">
+        <v>7.1465276090845702</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1">
-        <v>1354.56668377764</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1457.55400486645</v>
-      </c>
-      <c r="D18" s="1">
-        <v>25.305013447669499</v>
+      <c r="B18">
+        <v>3590.7682504678</v>
+      </c>
+      <c r="C18">
+        <v>511.52403219804302</v>
+      </c>
+      <c r="D18">
+        <v>6.7828701337665702</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1">
-        <v>1473.38933933867</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1468.1237195840499</v>
-      </c>
-      <c r="D19" s="1">
-        <v>26.959809087720402</v>
+      <c r="B19">
+        <v>3690.7119960320201</v>
+      </c>
+      <c r="C19">
+        <v>650.57215777582701</v>
+      </c>
+      <c r="D19">
+        <v>6.2373888450371302</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1">
-        <v>1482.6225875853099</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1520.6803212592999</v>
-      </c>
-      <c r="D20" s="1">
-        <v>31.248826701506001</v>
+      <c r="B20">
+        <v>3864.2055877829398</v>
+      </c>
+      <c r="C20">
+        <v>604.94843796551902</v>
+      </c>
+      <c r="D20">
+        <v>6.14647613582102</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1">
-        <v>1490.0481014501299</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1617.19452644065</v>
-      </c>
-      <c r="D21" s="1">
-        <v>27.059111888675101</v>
+      <c r="B21">
+        <v>3949.4478522445502</v>
+      </c>
+      <c r="C21">
+        <v>749.56030284084397</v>
+      </c>
+      <c r="D21">
+        <v>7.1030963035804398</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1">
-        <v>1613.33522026162</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1630.06488215073</v>
-      </c>
-      <c r="D22" s="1">
-        <v>28.7643355710977</v>
+      <c r="B22">
+        <v>4169.3481272373301</v>
+      </c>
+      <c r="C22">
+        <v>878.81821406618894</v>
+      </c>
+      <c r="D22">
+        <v>6.9030898673534802</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1">
-        <v>1624.37051038492</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1686.0321217783401</v>
-      </c>
-      <c r="D23" s="1">
-        <v>33.160644854731601</v>
+      <c r="B23">
+        <v>4349.46402473541</v>
+      </c>
+      <c r="C23">
+        <v>799.785669308406</v>
+      </c>
+      <c r="D23">
+        <v>7.6029873656385503</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1">
-        <v>1633.67047630262</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1786.99501883626</v>
-      </c>
-      <c r="D24" s="1">
-        <v>28.8921775523965</v>
+      <c r="B24">
+        <v>4460.01079543983</v>
+      </c>
+      <c r="C24">
+        <v>734.88916955350896</v>
+      </c>
+      <c r="D24">
+        <v>7.2030409801875104</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="1">
-        <v>1761.45019446775</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1802.2880287979899</v>
-      </c>
-      <c r="D25" s="1">
-        <v>30.6494865299975</v>
+      <c r="B25">
+        <v>4571.6826026808903</v>
+      </c>
+      <c r="C25">
+        <v>926.624242465983</v>
+      </c>
+      <c r="D25">
+        <v>7.8030702748629803</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="1">
-        <v>1774.39843087229</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1861.6462905896899</v>
-      </c>
-      <c r="D26" s="1">
-        <v>35.158240454037497</v>
+      <c r="B26">
+        <v>4759.6249446133697</v>
+      </c>
+      <c r="C26">
+        <v>963.85588418555301</v>
+      </c>
+      <c r="D26">
+        <v>8.1031180295974305</v>
       </c>
     </row>
   </sheetData>

--- a/Telangana/Future_Predicted_TG.xlsx
+++ b/Telangana/Future_Predicted_TG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karti\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{B1B6B617-00FB-4CB5-B544-84245480F0D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{919190AD-4093-4DB1-BA35-0F9BA0EAA11B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,22 +171,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>50503</xdr:rowOff>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>68272</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B30E67A-62F6-4FAD-A1CD-00296D3BC521}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D5AEFD-5BC0-4A92-AEEC-58585D1CBA0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -202,8 +202,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="4576783"/>
-          <a:ext cx="6987540" cy="4590078"/>
+          <a:off x="22861" y="4709160"/>
+          <a:ext cx="7010399" cy="4579312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -215,22 +215,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>388623</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152402</xdr:rowOff>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>236221</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A2FD8D-C393-4F74-A80B-BB864E5D76E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39118FB5-5135-445D-A302-84623DE6F481}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -246,8 +246,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6987543" y="4511042"/>
-          <a:ext cx="6979918" cy="4625338"/>
+          <a:off x="7056121" y="4701541"/>
+          <a:ext cx="6972299" cy="4587239"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -259,22 +259,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>952503</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>106682</xdr:rowOff>
+      <xdr:colOff>937261</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>251790</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>65599</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6B2E6C-4AC8-4044-89FC-EFAF2A2266E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F2A53ED-4F93-463D-9921-455CD8C58F5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -290,8 +290,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3345183" y="9159242"/>
-          <a:ext cx="7467927" cy="4975858"/>
+          <a:off x="3329941" y="9288781"/>
+          <a:ext cx="8089458" cy="4404359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -602,9 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -632,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1799.3770061124101</v>
+        <v>1312.1706824574301</v>
       </c>
       <c r="C2">
-        <v>307.99387140795602</v>
+        <v>355.010606266492</v>
       </c>
       <c r="D2">
-        <v>5.8492088551465002</v>
+        <v>3.81517805829621</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,13 +644,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1849.4041537437399</v>
+        <v>1561.8912443767799</v>
       </c>
       <c r="C3">
-        <v>404.61459865431902</v>
+        <v>498.630769689636</v>
       </c>
       <c r="D3">
-        <v>6.5491063534315703</v>
+        <v>5.6741203980603396</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,13 +658,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2023.7555273517301</v>
+        <v>1558.4757714529101</v>
       </c>
       <c r="C4">
-        <v>500.71904330852999</v>
+        <v>595.42419715279095</v>
       </c>
       <c r="D4">
-        <v>6.1491599679805304</v>
+        <v>5.2209963975484204</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,13 +672,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>2161.2769840189399</v>
+        <v>1748.0878633339501</v>
       </c>
       <c r="C5">
-        <v>441.37649610078699</v>
+        <v>664.85337414502897</v>
       </c>
       <c r="D5">
-        <v>6.7491892626560004</v>
+        <v>5.7307421490693402</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2222.0757695799002</v>
+        <v>1919.1834304347301</v>
       </c>
       <c r="C6">
-        <v>387.05599439276</v>
+        <v>604.561803974584</v>
       </c>
       <c r="D6">
-        <v>7.0492370173904497</v>
+        <v>6.7462532187020301</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -702,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>2283.98734406621</v>
+        <v>1946.0095682246699</v>
       </c>
       <c r="C7">
-        <v>530.22953757949097</v>
+        <v>508.06327366534202</v>
       </c>
       <c r="D7">
-        <v>6.61958710298107</v>
+        <v>6.4702252796930697</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -716,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2404.7903533209901</v>
+        <v>2000.14513946179</v>
       </c>
       <c r="C8">
-        <v>550.18532337865804</v>
+        <v>765.44871336317397</v>
       </c>
       <c r="D8">
-        <v>6.2559296276630798</v>
+        <v>5.2388091781788404</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -730,13 +728,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>2455.20711113272</v>
+        <v>2095.2025018579998</v>
       </c>
       <c r="C9">
-        <v>360.77275441352202</v>
+        <v>583.41210658799696</v>
       </c>
       <c r="D9">
-        <v>5.71044833893363</v>
+        <v>5.65160432731704</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -744,13 +742,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>2624.9338508917999</v>
+        <v>2059.5870227545402</v>
       </c>
       <c r="C10">
-        <v>478.52084088528699</v>
+        <v>587.82249446689605</v>
       </c>
       <c r="D10">
-        <v>5.6195356297175296</v>
+        <v>6.0994532290735997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -758,13 +756,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>2759.6960720514298</v>
+        <v>2004.7108865778901</v>
       </c>
       <c r="C11">
-        <v>439.02087239565401</v>
+        <v>764.43743020900399</v>
       </c>
       <c r="D11">
-        <v>6.5761557974769502</v>
+        <v>6.8114888325533904</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -772,13 +770,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>2841.5861987267999</v>
+        <v>2169.4803537108</v>
       </c>
       <c r="C12">
-        <v>559.43946358482197</v>
+        <v>985.90228058905404</v>
       </c>
       <c r="D12">
-        <v>6.3761493612499898</v>
+        <v>8.1255218927419897</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -786,13 +784,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>2921.9874500373899</v>
+        <v>2242.4328833514701</v>
       </c>
       <c r="C13">
-        <v>671.92293665292402</v>
+        <v>1195.2057956757001</v>
       </c>
       <c r="D13">
-        <v>7.0760468595350599</v>
+        <v>6.24978496718645</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -800,13 +798,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>3078.4775583033602</v>
+        <v>2324.59216279885</v>
       </c>
       <c r="C14">
-        <v>602.537685798486</v>
+        <v>810.21181064186499</v>
       </c>
       <c r="D14">
-        <v>6.67610047408402</v>
+        <v>6.4936325774290502</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -814,13 +812,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>3147.4718884936001</v>
+        <v>2291.9782764668798</v>
       </c>
       <c r="C15">
-        <v>542.73148019534801</v>
+        <v>743.74068474196702</v>
       </c>
       <c r="D15">
-        <v>7.2761297687594899</v>
+        <v>7.60971069662211</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,13 +826,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>3338.15158938796</v>
+        <v>2474.48541748351</v>
       </c>
       <c r="C16">
-        <v>709.988083373275</v>
+        <v>1471.5745334967801</v>
       </c>
       <c r="D16">
-        <v>7.5761775234939401</v>
+        <v>7.64233425713737</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -842,13 +840,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>3493.7993494992102</v>
+        <v>2516.5038902903798</v>
       </c>
       <c r="C17">
-        <v>738.38409226096803</v>
+        <v>1202.1564469560501</v>
       </c>
       <c r="D17">
-        <v>7.1465276090845702</v>
+        <v>6.8573816450940903</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -856,13 +854,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>3590.7682504678</v>
+        <v>2532.1374985392999</v>
       </c>
       <c r="C18">
-        <v>511.52403219804302</v>
+        <v>824.55050096057505</v>
       </c>
       <c r="D18">
-        <v>6.7828701337665702</v>
+        <v>7.2353095821833602</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,13 +868,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>3690.7119960320201</v>
+        <v>2573.5583534260099</v>
       </c>
       <c r="C19">
-        <v>650.57215777582701</v>
+        <v>1159.81771160074</v>
       </c>
       <c r="D19">
-        <v>6.2373888450371302</v>
+        <v>5.2183673838603903</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -884,13 +882,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>3864.2055877829398</v>
+        <v>2708.9266473596599</v>
       </c>
       <c r="C20">
-        <v>604.94843796551902</v>
+        <v>882.92431563418302</v>
       </c>
       <c r="D20">
-        <v>6.14647613582102</v>
+        <v>4.4189014892767897</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,13 +896,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>3949.4478522445502</v>
+        <v>2831.66218176341</v>
       </c>
       <c r="C21">
-        <v>749.56030284084397</v>
+        <v>1100.2060666387799</v>
       </c>
       <c r="D21">
-        <v>7.1030963035804398</v>
+        <v>6.37532943243668</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -912,13 +910,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>4169.3481272373301</v>
+        <v>3142.6866639585601</v>
       </c>
       <c r="C22">
-        <v>878.81821406618894</v>
+        <v>1243.13808267441</v>
       </c>
       <c r="D22">
-        <v>6.9030898673534802</v>
+        <v>4.7968302471690301</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -926,13 +924,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>4349.46402473541</v>
+        <v>3230.7185955416498</v>
       </c>
       <c r="C23">
-        <v>799.785669308406</v>
+        <v>1347.0480940530799</v>
       </c>
       <c r="D23">
-        <v>7.6029873656385503</v>
+        <v>6.6557725869331499</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,13 +938,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>4460.01079543983</v>
+        <v>3546.9888575820601</v>
       </c>
       <c r="C24">
-        <v>734.88916955350896</v>
+        <v>1268.1165433925601</v>
       </c>
       <c r="D24">
-        <v>7.2030409801875104</v>
+        <v>6.2026485864212297</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,13 +952,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>4571.6826026808903</v>
+        <v>3810.7881251252402</v>
       </c>
       <c r="C25">
-        <v>926.624242465983</v>
+        <v>1128.9385686578701</v>
       </c>
       <c r="D25">
-        <v>7.8030702748629803</v>
+        <v>6.7123943379421602</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -968,13 +966,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>4759.6249446133697</v>
+        <v>3865.8354910755802</v>
       </c>
       <c r="C26">
-        <v>963.85588418555301</v>
+        <v>1512.5432224885301</v>
       </c>
       <c r="D26">
-        <v>8.1031180295974305</v>
+        <v>7.7279054075748501</v>
       </c>
     </row>
   </sheetData>
